--- a/Ardiuno files/Shit data.xlsx
+++ b/Ardiuno files/Shit data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlaburhenne/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmm9\Documents\GitHub\REX\Ardiuno files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02BEDD93-FA68-6249-AD4A-90E78E0E6DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949F0F4A-8B11-4F77-9A72-1229593AE169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16460" activeTab="1" xr2:uid="{06DE657E-E471-214A-8F91-F1DBA8823056}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{06DE657E-E471-214A-8F91-F1DBA8823056}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Ark4" sheetId="4" r:id="rId3"/>
     <sheet name="Ark2" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Round</t>
   </si>
@@ -67,58 +68,19 @@
     <t>300m</t>
   </si>
   <si>
-    <t>3000, 3000, 3000, 3000, 3000, 3000, 3000, 3000, 3000, 3000, 3000, 3000, 3000, 3000, 3000, 3000, 3000, 3000, 2999, 3000, 2999, 3000, 2999, 3000, 2999, 3000, 2999, 3000, 3000, 3000, 2999, 3000, 3000, 3000, 3000, 3000, 3000, 3000, 3000, 3000</t>
-  </si>
-  <si>
-    <t>1000, 1000, 1000, 1001, 1000, 1000, 1000, 1001, 1000, 1000, 1001, 1000, 1000, 1001, 1000, 1000, 1000, 1000, 1000, 1000, 1001, 1000, 1001, 1001, 1000, 1001, 1001, 1000, 1000, 1006, 1005, 1005, 1000, 1000, 1000, 1006, 1000, 1005, 1001, 1000</t>
-  </si>
-  <si>
-    <t>503, 505, 503, 503, 505, 503, 503, 503, 503, 503, 503, 503, 503, 503, 505, 503, 503, 503, 503, 503, 503, 503, 503, 503, 503, 503, 505, 503, 503, 503, 503, 504, 503, 503, 503, 503, 503, 503, 503, 503</t>
-  </si>
-  <si>
-    <t>307, 307, 307, 307, 307, 307, 307, 304, 303, 303, 307, 307, 308, 307, 303, 307, 307, 307, 303, 308, 307, 303, 304, 307, 308, 307, 303, 308, 307, 308, 307, 307, 307, 307, 308, 307, 307, 307, 307, 308</t>
-  </si>
-  <si>
-    <t>109, 109, 110, 109, 109, 110, 109, 109, 109, 110, 109, 109, 110, 109, 110, 109, 110, 110, 109, 110, 109, 110, 109, 110, 110, 109, 110, 109, 109, 109, 109, 110, 109, 110, 109, 109, 110, 109, 110, 109</t>
-  </si>
-  <si>
     <t>Right</t>
   </si>
   <si>
     <t>left</t>
   </si>
   <si>
-    <t>106, 107, 107, 106, 107, 106, 107, 106, 106, 107, 106, 107, 106, 107, 107, 106, 107, 106, 106, 107, 106, 107, 106, 107, 106, 106, 107, 106, 107, 106, 106, 107, 106, 107, 106, 106, 106, 106, 107, 106</t>
-  </si>
-  <si>
-    <t>303, 305, 303, 303, 303, 303, 305, 303, 305, 303, 303, 303, 303, 305, 303, 303, 303, 303, 305, 303, 303, 303, 303, 303, 303, 305, 303, 303, 305, 303, 305, 303, 303, 305, 303, 305, 303, 301, 303, 303</t>
-  </si>
-  <si>
-    <t>501, 501, 501, 502, 503, 501, 501, 501, 501, 501, 501, 501, 501, 501, 501, 501, 502, 501, 501, 501, 501, 502, 501, 501, 501, 501, 501, 501, 502, 501, 501, 501, 501, 502, 501, 501, 503, 501, 501, 501</t>
-  </si>
-  <si>
-    <t>1003, 998, 1003, 1002, 998, 998, 999, 1002, 1002, 999, 998, 1002, 999, 1002, 1002, 999, 998, 998, 998, 998, 998, 998, 999, 998, 998, 999, 998, 1003, 999, 998, 1002, 999, 998, 998, 999, 1002, 1002, 1002, 1002, 1002</t>
-  </si>
-  <si>
-    <t>2996, 2997, 2993, 2997, 2997, 2997, 2997, 2997, 2997, 2996, 2997, 2997, 2997, 2997, 2997, 2997, 2997, 2997, 2993, 2997, 2997, 2997, 2997, 2997, 2997, 2997, 2997, 2997, 2997, 2997, 2997, 2997, 2997, 2997, 2997, 2997, 2997, 2997, 2997, 2997</t>
-  </si>
-  <si>
     <t>back</t>
   </si>
   <si>
-    <t>2997, 2994, 2996, 2993, 2997, 2997, 2997, 2993, 2997, 2997, 2997, 2997, 2996, 2997, 2992, 2997, 2996, 2997, 2997, 2997, 2997, 2993, 2993, 2997, 2996, 2997, 2993, 2996, 2996, 2996, 2997, 2996, 2996, 2997, 2996, 2997, 2996, 2996, 2993, 2997</t>
+    <t>right</t>
   </si>
   <si>
-    <t>1002, 1002, 1001, 1001, 1001, 1001, 1001, 1002, 1002, 1001, 1002, 1002, 1001, 1001, 1001, 1001, 1001, 1001, 1001, 1001, 1002, 1001, 1001, 1002, 1001, 1001, 1002, 1001, 1001, 1002, 1001, 1001, 1001, 1001, 1001, 1001, 1002, 1001, 1001, 1002</t>
-  </si>
-  <si>
-    <t>505, 505, 504, 504, 504, 504, 504, 504, 504, 504, 504, 505, 504, 505, 504, 504, 504, 504, 504, 504, 504, 504, 504, 505, 504, 504, 504, 504, 505, 504, 504, 504, 504, 504, 504, 504, 504, 504, 504, 504</t>
-  </si>
-  <si>
-    <t>297, 297, 296, 297, 296, 296, 296, 296, 297, 296, 296, 296, 296, 297, 296, 296, 297, 296, 296, 296, 297, 296, 296, 297, 296, 297, 296, 296, 297, 296, 297, 296, 297, 296, 296, 297, 296, 296, 296, 296</t>
-  </si>
-  <si>
-    <t>102, 101, 101, 101, 102, 101, 101, 102, 101, 102, 101, 102, 102, 101, 102, 101, 102, 101, 102, 102, 101, 102, 101, 102, 102, 101, 102, 101, 101, 101, 102, 102, 101, 102, 101, 101, 102, 101, 102, 101</t>
+    <t>front</t>
   </si>
 </sst>
 </file>
@@ -154,8 +116,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,7 +139,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1829,7 +1792,793 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Standard</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="da-DK" baseline="0"/>
+              <a:t> deviation for sensor readings</a:t>
+            </a:r>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$J$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>front</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ark1'!$I$42:$I$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$J$42:$J$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.50064061525312298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48304589153964794</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33493206352854182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45825756949558377</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.031553471276484</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A18F-4A7A-8599-D9ACA27FEB1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$K$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ark1'!$I$42:$I$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$K$42:$K$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.50064061525312298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95943359359197988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53048115556563957</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9374844912530669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89871703427291716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A18F-4A7A-8599-D9ACA27FEB1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$L$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>right</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ark1'!$I$42:$I$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$L$42:$L$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.49613893835683365</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6623662467884555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61965664603420434</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7742820866696827</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36162028533978963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A18F-4A7A-8599-D9ACA27FEB1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$M$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>back</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ark1'!$I$42:$I$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$M$42:$M$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.50573632534081492</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.474341649025257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36162028533978929</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46409548089225688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5491933384829661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A18F-4A7A-8599-D9ACA27FEB1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1402969424"/>
+        <c:axId val="1402968592"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1402969424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Distance in cm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1402968592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1402968592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>SD</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1402969424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2372,6 +3121,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2410,11 +3662,47 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>212360</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>174885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>737016</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>24985</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{968FBADB-90FC-4B2F-0DCB-5A35A56435CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2710,15 +3998,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30227C4-565A-E142-BCF3-BAC86A19FC06}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="61" workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2744,7 +4032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2770,7 +4058,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2796,7 +4084,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2822,7 +4110,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2848,7 +4136,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2874,7 +4162,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2900,7 +4188,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2926,7 +4214,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2952,7 +4240,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2978,7 +4266,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3004,7 +4292,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3030,7 +4318,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3056,7 +4344,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3082,7 +4370,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3108,7 +4396,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3134,7 +4422,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3160,7 +4448,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3186,7 +4474,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3212,7 +4500,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3238,7 +4526,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3264,7 +4552,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3290,7 +4578,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3316,7 +4604,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3342,7 +4630,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3368,7 +4656,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3394,7 +4682,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3420,7 +4708,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3446,7 +4734,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3472,7 +4760,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3498,7 +4786,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3524,7 +4812,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3550,7 +4838,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3576,7 +4864,7 @@
         <v>2991</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3602,7 +4890,7 @@
         <v>2991</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3628,7 +4916,7 @@
         <v>2991</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3654,7 +4942,7 @@
         <v>2991</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3680,7 +4968,7 @@
         <v>2994</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3706,7 +4994,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3732,7 +5020,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3758,7 +5046,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3782,6 +5070,139 @@
       </c>
       <c r="H41">
         <v>2995</v>
+      </c>
+      <c r="J41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <f>_xlfn.STDEV.S(B2:B41)</f>
+        <v>0.50064061525312298</v>
+      </c>
+      <c r="C42">
+        <v>0.48304589153964794</v>
+      </c>
+      <c r="D42">
+        <v>0.33493206352854182</v>
+      </c>
+      <c r="E42">
+        <f>_xlfn.STDEV.P(E2:E41)</f>
+        <v>0.45825756949558377</v>
+      </c>
+      <c r="H42">
+        <f>_xlfn.STDEV.S(H2:H41)</f>
+        <v>1.031553471276484</v>
+      </c>
+      <c r="I42" s="1">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>0.50064061525312298</v>
+      </c>
+      <c r="K42">
+        <v>0.50064061525312298</v>
+      </c>
+      <c r="L42">
+        <v>0.49613893835683365</v>
+      </c>
+      <c r="M42">
+        <v>0.50573632534081492</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <v>30</v>
+      </c>
+      <c r="J43">
+        <v>0.48304589153964794</v>
+      </c>
+      <c r="K43">
+        <v>0.95943359359197988</v>
+      </c>
+      <c r="L43">
+        <v>1.6623662467884555</v>
+      </c>
+      <c r="M43">
+        <v>0.474341649025257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <v>50</v>
+      </c>
+      <c r="J44">
+        <v>0.33493206352854182</v>
+      </c>
+      <c r="K44">
+        <v>0.53048115556563957</v>
+      </c>
+      <c r="L44">
+        <v>0.61965664603420434</v>
+      </c>
+      <c r="M44">
+        <v>0.36162028533978929</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <v>100</v>
+      </c>
+      <c r="J45">
+        <v>0.45825756949558377</v>
+      </c>
+      <c r="K45">
+        <v>1.9374844912530669</v>
+      </c>
+      <c r="L45">
+        <v>1.7742820866696827</v>
+      </c>
+      <c r="M45">
+        <v>0.46409548089225688</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <v>300</v>
+      </c>
+      <c r="J46">
+        <v>1.031553471276484</v>
+      </c>
+      <c r="K46">
+        <v>0.89871703427291716</v>
+      </c>
+      <c r="L46">
+        <v>0.36162028533978963</v>
+      </c>
+      <c r="M46">
+        <v>1.5491933384829661</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J47">
+        <f>SUM(J42:J46)</f>
+        <v>2.8084296110933806</v>
+      </c>
+      <c r="K47">
+        <f>SUM(K42:K46)</f>
+        <v>4.8267568899367266</v>
+      </c>
+      <c r="L47">
+        <f>SUM(L42:L46)</f>
+        <v>4.9140642031889659</v>
+      </c>
+      <c r="M47">
+        <f>SUM(M42:M46)</f>
+        <v>3.3549870790810843</v>
       </c>
     </row>
   </sheetData>
@@ -3792,42 +5213,643 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFA882E-162A-0246-B1ED-887868187731}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:AS7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F7" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f>_xlfn.STDEV.S(F3:AS3)</f>
+        <v>0.50064061525312298</v>
+      </c>
+      <c r="F3">
+        <v>106</v>
+      </c>
+      <c r="G3">
+        <v>107</v>
+      </c>
+      <c r="H3">
+        <v>107</v>
+      </c>
+      <c r="I3">
+        <v>106</v>
+      </c>
+      <c r="J3">
+        <v>107</v>
+      </c>
+      <c r="K3">
+        <v>106</v>
+      </c>
+      <c r="L3">
+        <v>107</v>
+      </c>
+      <c r="M3">
+        <v>106</v>
+      </c>
+      <c r="N3">
+        <v>106</v>
+      </c>
+      <c r="O3">
+        <v>107</v>
+      </c>
+      <c r="P3">
+        <v>106</v>
+      </c>
+      <c r="Q3">
+        <v>107</v>
+      </c>
+      <c r="R3">
+        <v>106</v>
+      </c>
+      <c r="S3">
+        <v>107</v>
+      </c>
+      <c r="T3">
+        <v>107</v>
+      </c>
+      <c r="U3">
+        <v>106</v>
+      </c>
+      <c r="V3">
+        <v>107</v>
+      </c>
+      <c r="W3">
+        <v>106</v>
+      </c>
+      <c r="X3">
+        <v>106</v>
+      </c>
+      <c r="Y3">
+        <v>107</v>
+      </c>
+      <c r="Z3">
+        <v>106</v>
+      </c>
+      <c r="AA3">
+        <v>107</v>
+      </c>
+      <c r="AB3">
+        <v>106</v>
+      </c>
+      <c r="AC3">
+        <v>107</v>
+      </c>
+      <c r="AD3">
+        <v>106</v>
+      </c>
+      <c r="AE3">
+        <v>106</v>
+      </c>
+      <c r="AF3">
+        <v>107</v>
+      </c>
+      <c r="AG3">
+        <v>106</v>
+      </c>
+      <c r="AH3">
+        <v>107</v>
+      </c>
+      <c r="AI3">
+        <v>106</v>
+      </c>
+      <c r="AJ3">
+        <v>106</v>
+      </c>
+      <c r="AK3">
+        <v>107</v>
+      </c>
+      <c r="AL3">
+        <v>106</v>
+      </c>
+      <c r="AM3">
+        <v>107</v>
+      </c>
+      <c r="AN3">
+        <v>106</v>
+      </c>
+      <c r="AO3">
+        <v>106</v>
+      </c>
+      <c r="AP3">
+        <v>106</v>
+      </c>
+      <c r="AQ3">
+        <v>106</v>
+      </c>
+      <c r="AR3">
+        <v>107</v>
+      </c>
+      <c r="AS3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>0.95943359359197988</v>
+      </c>
+      <c r="F4">
+        <v>303</v>
+      </c>
+      <c r="G4">
+        <v>305</v>
+      </c>
+      <c r="H4">
+        <v>303</v>
+      </c>
+      <c r="I4">
+        <v>303</v>
+      </c>
+      <c r="J4">
+        <v>303</v>
+      </c>
+      <c r="K4">
+        <v>303</v>
+      </c>
+      <c r="L4">
+        <v>305</v>
+      </c>
+      <c r="M4">
+        <v>303</v>
+      </c>
+      <c r="N4">
+        <v>305</v>
+      </c>
+      <c r="O4">
+        <v>303</v>
+      </c>
+      <c r="P4">
+        <v>303</v>
+      </c>
+      <c r="Q4">
+        <v>303</v>
+      </c>
+      <c r="R4">
+        <v>303</v>
+      </c>
+      <c r="S4">
+        <v>305</v>
+      </c>
+      <c r="T4">
+        <v>303</v>
+      </c>
+      <c r="U4">
+        <v>303</v>
+      </c>
+      <c r="V4">
+        <v>303</v>
+      </c>
+      <c r="W4">
+        <v>303</v>
+      </c>
+      <c r="X4">
+        <v>305</v>
+      </c>
+      <c r="Y4">
+        <v>303</v>
+      </c>
+      <c r="Z4">
+        <v>303</v>
+      </c>
+      <c r="AA4">
+        <v>303</v>
+      </c>
+      <c r="AB4">
+        <v>303</v>
+      </c>
+      <c r="AC4">
+        <v>303</v>
+      </c>
+      <c r="AD4">
+        <v>303</v>
+      </c>
+      <c r="AE4">
+        <v>305</v>
+      </c>
+      <c r="AF4">
+        <v>303</v>
+      </c>
+      <c r="AG4">
+        <v>303</v>
+      </c>
+      <c r="AH4">
+        <v>305</v>
+      </c>
+      <c r="AI4">
+        <v>303</v>
+      </c>
+      <c r="AJ4">
+        <v>305</v>
+      </c>
+      <c r="AK4">
+        <v>303</v>
+      </c>
+      <c r="AL4">
+        <v>303</v>
+      </c>
+      <c r="AM4">
+        <v>305</v>
+      </c>
+      <c r="AN4">
+        <v>303</v>
+      </c>
+      <c r="AO4">
+        <v>305</v>
+      </c>
+      <c r="AP4">
+        <v>303</v>
+      </c>
+      <c r="AQ4">
+        <v>301</v>
+      </c>
+      <c r="AR4">
+        <v>303</v>
+      </c>
+      <c r="AS4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>0.53048115556563957</v>
+      </c>
+      <c r="F5">
+        <v>501</v>
+      </c>
+      <c r="G5">
+        <v>501</v>
+      </c>
+      <c r="H5">
+        <v>501</v>
+      </c>
+      <c r="I5">
+        <v>502</v>
+      </c>
+      <c r="J5">
+        <v>503</v>
+      </c>
+      <c r="K5">
+        <v>501</v>
+      </c>
+      <c r="L5">
+        <v>501</v>
+      </c>
+      <c r="M5">
+        <v>501</v>
+      </c>
+      <c r="N5">
+        <v>501</v>
+      </c>
+      <c r="O5">
+        <v>501</v>
+      </c>
+      <c r="P5">
+        <v>501</v>
+      </c>
+      <c r="Q5">
+        <v>501</v>
+      </c>
+      <c r="R5">
+        <v>501</v>
+      </c>
+      <c r="S5">
+        <v>501</v>
+      </c>
+      <c r="T5">
+        <v>501</v>
+      </c>
+      <c r="U5">
+        <v>501</v>
+      </c>
+      <c r="V5">
+        <v>502</v>
+      </c>
+      <c r="W5">
+        <v>501</v>
+      </c>
+      <c r="X5">
+        <v>501</v>
+      </c>
+      <c r="Y5">
+        <v>501</v>
+      </c>
+      <c r="Z5">
+        <v>501</v>
+      </c>
+      <c r="AA5">
+        <v>502</v>
+      </c>
+      <c r="AB5">
+        <v>501</v>
+      </c>
+      <c r="AC5">
+        <v>501</v>
+      </c>
+      <c r="AD5">
+        <v>501</v>
+      </c>
+      <c r="AE5">
+        <v>501</v>
+      </c>
+      <c r="AF5">
+        <v>501</v>
+      </c>
+      <c r="AG5">
+        <v>501</v>
+      </c>
+      <c r="AH5">
+        <v>502</v>
+      </c>
+      <c r="AI5">
+        <v>501</v>
+      </c>
+      <c r="AJ5">
+        <v>501</v>
+      </c>
+      <c r="AK5">
+        <v>501</v>
+      </c>
+      <c r="AL5">
+        <v>501</v>
+      </c>
+      <c r="AM5">
+        <v>502</v>
+      </c>
+      <c r="AN5">
+        <v>501</v>
+      </c>
+      <c r="AO5">
+        <v>501</v>
+      </c>
+      <c r="AP5">
+        <v>503</v>
+      </c>
+      <c r="AQ5">
+        <v>501</v>
+      </c>
+      <c r="AR5">
+        <v>501</v>
+      </c>
+      <c r="AS5">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>1.9374844912530669</v>
+      </c>
+      <c r="F6">
+        <v>1003</v>
+      </c>
+      <c r="G6">
+        <v>998</v>
+      </c>
+      <c r="H6">
+        <v>1003</v>
+      </c>
+      <c r="I6">
+        <v>1002</v>
+      </c>
+      <c r="J6">
+        <v>998</v>
+      </c>
+      <c r="K6">
+        <v>998</v>
+      </c>
+      <c r="L6">
+        <v>999</v>
+      </c>
+      <c r="M6">
+        <v>1002</v>
+      </c>
+      <c r="N6">
+        <v>1002</v>
+      </c>
+      <c r="O6">
+        <v>999</v>
+      </c>
+      <c r="P6">
+        <v>998</v>
+      </c>
+      <c r="Q6">
+        <v>1002</v>
+      </c>
+      <c r="R6">
+        <v>999</v>
+      </c>
+      <c r="S6">
+        <v>1002</v>
+      </c>
+      <c r="T6">
+        <v>1002</v>
+      </c>
+      <c r="U6">
+        <v>999</v>
+      </c>
+      <c r="V6">
+        <v>998</v>
+      </c>
+      <c r="W6">
+        <v>998</v>
+      </c>
+      <c r="X6">
+        <v>998</v>
+      </c>
+      <c r="Y6">
+        <v>998</v>
+      </c>
+      <c r="Z6">
+        <v>998</v>
+      </c>
+      <c r="AA6">
+        <v>998</v>
+      </c>
+      <c r="AB6">
+        <v>999</v>
+      </c>
+      <c r="AC6">
+        <v>998</v>
+      </c>
+      <c r="AD6">
+        <v>998</v>
+      </c>
+      <c r="AE6">
+        <v>999</v>
+      </c>
+      <c r="AF6">
+        <v>998</v>
+      </c>
+      <c r="AG6">
+        <v>1003</v>
+      </c>
+      <c r="AH6">
+        <v>999</v>
+      </c>
+      <c r="AI6">
+        <v>998</v>
+      </c>
+      <c r="AJ6">
+        <v>1002</v>
+      </c>
+      <c r="AK6">
+        <v>999</v>
+      </c>
+      <c r="AL6">
+        <v>998</v>
+      </c>
+      <c r="AM6">
+        <v>998</v>
+      </c>
+      <c r="AN6">
+        <v>999</v>
+      </c>
+      <c r="AO6">
+        <v>1002</v>
+      </c>
+      <c r="AP6">
+        <v>1002</v>
+      </c>
+      <c r="AQ6">
+        <v>1002</v>
+      </c>
+      <c r="AR6">
+        <v>1002</v>
+      </c>
+      <c r="AS6">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>0.89871703427291716</v>
+      </c>
+      <c r="F7">
+        <v>2996</v>
+      </c>
+      <c r="G7">
+        <v>2997</v>
+      </c>
+      <c r="H7">
+        <v>2993</v>
+      </c>
+      <c r="I7">
+        <v>2997</v>
+      </c>
+      <c r="J7">
+        <v>2997</v>
+      </c>
+      <c r="K7">
+        <v>2997</v>
+      </c>
+      <c r="L7">
+        <v>2997</v>
+      </c>
+      <c r="M7">
+        <v>2997</v>
+      </c>
+      <c r="N7">
+        <v>2997</v>
+      </c>
+      <c r="O7">
+        <v>2996</v>
+      </c>
+      <c r="P7">
+        <v>2997</v>
+      </c>
+      <c r="Q7">
+        <v>2997</v>
+      </c>
+      <c r="R7">
+        <v>2997</v>
+      </c>
+      <c r="S7">
+        <v>2997</v>
+      </c>
+      <c r="T7">
+        <v>2997</v>
+      </c>
+      <c r="U7">
+        <v>2997</v>
+      </c>
+      <c r="V7">
+        <v>2997</v>
+      </c>
+      <c r="W7">
+        <v>2997</v>
+      </c>
+      <c r="X7">
+        <v>2993</v>
+      </c>
+      <c r="Y7">
+        <v>2997</v>
+      </c>
+      <c r="Z7">
+        <v>2997</v>
+      </c>
+      <c r="AA7">
+        <v>2997</v>
+      </c>
+      <c r="AB7">
+        <v>2997</v>
+      </c>
+      <c r="AC7">
+        <v>2997</v>
+      </c>
+      <c r="AD7">
+        <v>2997</v>
+      </c>
+      <c r="AE7">
+        <v>2997</v>
+      </c>
+      <c r="AF7">
+        <v>2997</v>
+      </c>
+      <c r="AG7">
+        <v>2997</v>
+      </c>
+      <c r="AH7">
+        <v>2997</v>
+      </c>
+      <c r="AI7">
+        <v>2997</v>
+      </c>
+      <c r="AJ7">
+        <v>2997</v>
+      </c>
+      <c r="AK7">
+        <v>2997</v>
+      </c>
+      <c r="AL7">
+        <v>2997</v>
+      </c>
+      <c r="AM7">
+        <v>2997</v>
+      </c>
+      <c r="AN7">
+        <v>2997</v>
+      </c>
+      <c r="AO7">
+        <v>2997</v>
+      </c>
+      <c r="AP7">
+        <v>2997</v>
+      </c>
+      <c r="AQ7">
+        <v>2997</v>
+      </c>
+      <c r="AR7">
+        <v>2997</v>
+      </c>
+      <c r="AS7">
+        <v>2997</v>
       </c>
     </row>
   </sheetData>
@@ -3837,42 +5859,647 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A0166E-FDDF-D946-8197-FE412DDD2780}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:AR7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D3" sqref="D3:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E7" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <f>_xlfn.STDEV.S(E3:AR3)</f>
+        <v>1.5491933384829661</v>
+      </c>
+      <c r="E3">
+        <v>2997</v>
+      </c>
+      <c r="F3">
+        <v>2994</v>
+      </c>
+      <c r="G3">
+        <v>2996</v>
+      </c>
+      <c r="H3">
+        <v>2993</v>
+      </c>
+      <c r="I3">
+        <v>2997</v>
+      </c>
+      <c r="J3">
+        <v>2997</v>
+      </c>
+      <c r="K3">
+        <v>2997</v>
+      </c>
+      <c r="L3">
+        <v>2993</v>
+      </c>
+      <c r="M3">
+        <v>2997</v>
+      </c>
+      <c r="N3">
+        <v>2997</v>
+      </c>
+      <c r="O3">
+        <v>2997</v>
+      </c>
+      <c r="P3">
+        <v>2997</v>
+      </c>
+      <c r="Q3">
+        <v>2996</v>
+      </c>
+      <c r="R3">
+        <v>2997</v>
+      </c>
+      <c r="S3">
+        <v>2992</v>
+      </c>
+      <c r="T3">
+        <v>2997</v>
+      </c>
+      <c r="U3">
+        <v>2996</v>
+      </c>
+      <c r="V3">
+        <v>2997</v>
+      </c>
+      <c r="W3">
+        <v>2997</v>
+      </c>
+      <c r="X3">
+        <v>2997</v>
+      </c>
+      <c r="Y3">
+        <v>2997</v>
+      </c>
+      <c r="Z3">
+        <v>2993</v>
+      </c>
+      <c r="AA3">
+        <v>2993</v>
+      </c>
+      <c r="AB3">
+        <v>2997</v>
+      </c>
+      <c r="AC3">
+        <v>2996</v>
+      </c>
+      <c r="AD3">
+        <v>2997</v>
+      </c>
+      <c r="AE3">
+        <v>2993</v>
+      </c>
+      <c r="AF3">
+        <v>2996</v>
+      </c>
+      <c r="AG3">
+        <v>2996</v>
+      </c>
+      <c r="AH3">
+        <v>2996</v>
+      </c>
+      <c r="AI3">
+        <v>2997</v>
+      </c>
+      <c r="AJ3">
+        <v>2996</v>
+      </c>
+      <c r="AK3">
+        <v>2996</v>
+      </c>
+      <c r="AL3">
+        <v>2997</v>
+      </c>
+      <c r="AM3">
+        <v>2996</v>
+      </c>
+      <c r="AN3">
+        <v>2997</v>
+      </c>
+      <c r="AO3">
+        <v>2996</v>
+      </c>
+      <c r="AP3">
+        <v>2996</v>
+      </c>
+      <c r="AQ3">
+        <v>2993</v>
+      </c>
+      <c r="AR3">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <f>_xlfn.STDEV.S(E4:AR4)</f>
+        <v>0.46409548089225688</v>
+      </c>
+      <c r="E4">
+        <v>1002</v>
+      </c>
+      <c r="F4">
+        <v>1002</v>
+      </c>
+      <c r="G4">
+        <v>1001</v>
+      </c>
+      <c r="H4">
+        <v>1001</v>
+      </c>
+      <c r="I4">
+        <v>1001</v>
+      </c>
+      <c r="J4">
+        <v>1001</v>
+      </c>
+      <c r="K4">
+        <v>1001</v>
+      </c>
+      <c r="L4">
+        <v>1002</v>
+      </c>
+      <c r="M4">
+        <v>1002</v>
+      </c>
+      <c r="N4">
+        <v>1001</v>
+      </c>
+      <c r="O4">
+        <v>1002</v>
+      </c>
+      <c r="P4">
+        <v>1002</v>
+      </c>
+      <c r="Q4">
+        <v>1001</v>
+      </c>
+      <c r="R4">
+        <v>1001</v>
+      </c>
+      <c r="S4">
+        <v>1001</v>
+      </c>
+      <c r="T4">
+        <v>1001</v>
+      </c>
+      <c r="U4">
+        <v>1001</v>
+      </c>
+      <c r="V4">
+        <v>1001</v>
+      </c>
+      <c r="W4">
+        <v>1001</v>
+      </c>
+      <c r="X4">
+        <v>1001</v>
+      </c>
+      <c r="Y4">
+        <v>1002</v>
+      </c>
+      <c r="Z4">
+        <v>1001</v>
+      </c>
+      <c r="AA4">
+        <v>1001</v>
+      </c>
+      <c r="AB4">
+        <v>1002</v>
+      </c>
+      <c r="AC4">
+        <v>1001</v>
+      </c>
+      <c r="AD4">
+        <v>1001</v>
+      </c>
+      <c r="AE4">
+        <v>1002</v>
+      </c>
+      <c r="AF4">
+        <v>1001</v>
+      </c>
+      <c r="AG4">
+        <v>1001</v>
+      </c>
+      <c r="AH4">
+        <v>1002</v>
+      </c>
+      <c r="AI4">
+        <v>1001</v>
+      </c>
+      <c r="AJ4">
+        <v>1001</v>
+      </c>
+      <c r="AK4">
+        <v>1001</v>
+      </c>
+      <c r="AL4">
+        <v>1001</v>
+      </c>
+      <c r="AM4">
+        <v>1001</v>
+      </c>
+      <c r="AN4">
+        <v>1001</v>
+      </c>
+      <c r="AO4">
+        <v>1002</v>
+      </c>
+      <c r="AP4">
+        <v>1001</v>
+      </c>
+      <c r="AQ4">
+        <v>1001</v>
+      </c>
+      <c r="AR4">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <f>_xlfn.STDEV.S(E5:AR5)</f>
+        <v>0.36162028533978929</v>
+      </c>
+      <c r="E5">
+        <v>505</v>
+      </c>
+      <c r="F5">
+        <v>505</v>
+      </c>
+      <c r="G5">
+        <v>504</v>
+      </c>
+      <c r="H5">
+        <v>504</v>
+      </c>
+      <c r="I5">
+        <v>504</v>
+      </c>
+      <c r="J5">
+        <v>504</v>
+      </c>
+      <c r="K5">
+        <v>504</v>
+      </c>
+      <c r="L5">
+        <v>504</v>
+      </c>
+      <c r="M5">
+        <v>504</v>
+      </c>
+      <c r="N5">
+        <v>504</v>
+      </c>
+      <c r="O5">
+        <v>504</v>
+      </c>
+      <c r="P5">
+        <v>505</v>
+      </c>
+      <c r="Q5">
+        <v>504</v>
+      </c>
+      <c r="R5">
+        <v>505</v>
+      </c>
+      <c r="S5">
+        <v>504</v>
+      </c>
+      <c r="T5">
+        <v>504</v>
+      </c>
+      <c r="U5">
+        <v>504</v>
+      </c>
+      <c r="V5">
+        <v>504</v>
+      </c>
+      <c r="W5">
+        <v>504</v>
+      </c>
+      <c r="X5">
+        <v>504</v>
+      </c>
+      <c r="Y5">
+        <v>504</v>
+      </c>
+      <c r="Z5">
+        <v>504</v>
+      </c>
+      <c r="AA5">
+        <v>504</v>
+      </c>
+      <c r="AB5">
+        <v>505</v>
+      </c>
+      <c r="AC5">
+        <v>504</v>
+      </c>
+      <c r="AD5">
+        <v>504</v>
+      </c>
+      <c r="AE5">
+        <v>504</v>
+      </c>
+      <c r="AF5">
+        <v>504</v>
+      </c>
+      <c r="AG5">
+        <v>505</v>
+      </c>
+      <c r="AH5">
+        <v>504</v>
+      </c>
+      <c r="AI5">
+        <v>504</v>
+      </c>
+      <c r="AJ5">
+        <v>504</v>
+      </c>
+      <c r="AK5">
+        <v>504</v>
+      </c>
+      <c r="AL5">
+        <v>504</v>
+      </c>
+      <c r="AM5">
+        <v>504</v>
+      </c>
+      <c r="AN5">
+        <v>504</v>
+      </c>
+      <c r="AO5">
+        <v>504</v>
+      </c>
+      <c r="AP5">
+        <v>504</v>
+      </c>
+      <c r="AQ5">
+        <v>504</v>
+      </c>
+      <c r="AR5">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <f>_xlfn.STDEV.S(E6:AR6)</f>
+        <v>0.474341649025257</v>
+      </c>
+      <c r="E6">
+        <v>297</v>
+      </c>
+      <c r="F6">
+        <v>297</v>
+      </c>
+      <c r="G6">
+        <v>296</v>
+      </c>
+      <c r="H6">
+        <v>297</v>
+      </c>
+      <c r="I6">
+        <v>296</v>
+      </c>
+      <c r="J6">
+        <v>296</v>
+      </c>
+      <c r="K6">
+        <v>296</v>
+      </c>
+      <c r="L6">
+        <v>296</v>
+      </c>
+      <c r="M6">
+        <v>297</v>
+      </c>
+      <c r="N6">
+        <v>296</v>
+      </c>
+      <c r="O6">
+        <v>296</v>
+      </c>
+      <c r="P6">
+        <v>296</v>
+      </c>
+      <c r="Q6">
+        <v>296</v>
+      </c>
+      <c r="R6">
+        <v>297</v>
+      </c>
+      <c r="S6">
+        <v>296</v>
+      </c>
+      <c r="T6">
+        <v>296</v>
+      </c>
+      <c r="U6">
+        <v>297</v>
+      </c>
+      <c r="V6">
+        <v>296</v>
+      </c>
+      <c r="W6">
+        <v>296</v>
+      </c>
+      <c r="X6">
+        <v>296</v>
+      </c>
+      <c r="Y6">
+        <v>297</v>
+      </c>
+      <c r="Z6">
+        <v>296</v>
+      </c>
+      <c r="AA6">
+        <v>296</v>
+      </c>
+      <c r="AB6">
+        <v>297</v>
+      </c>
+      <c r="AC6">
+        <v>296</v>
+      </c>
+      <c r="AD6">
+        <v>297</v>
+      </c>
+      <c r="AE6">
+        <v>296</v>
+      </c>
+      <c r="AF6">
+        <v>296</v>
+      </c>
+      <c r="AG6">
+        <v>297</v>
+      </c>
+      <c r="AH6">
+        <v>296</v>
+      </c>
+      <c r="AI6">
+        <v>297</v>
+      </c>
+      <c r="AJ6">
+        <v>296</v>
+      </c>
+      <c r="AK6">
+        <v>297</v>
+      </c>
+      <c r="AL6">
+        <v>296</v>
+      </c>
+      <c r="AM6">
+        <v>296</v>
+      </c>
+      <c r="AN6">
+        <v>297</v>
+      </c>
+      <c r="AO6">
+        <v>296</v>
+      </c>
+      <c r="AP6">
+        <v>296</v>
+      </c>
+      <c r="AQ6">
+        <v>296</v>
+      </c>
+      <c r="AR6">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <f>_xlfn.STDEV.S(E7:AR7)</f>
+        <v>0.50573632534081492</v>
+      </c>
+      <c r="E7">
+        <v>102</v>
+      </c>
+      <c r="F7">
+        <v>101</v>
+      </c>
+      <c r="G7">
+        <v>101</v>
+      </c>
+      <c r="H7">
+        <v>101</v>
+      </c>
+      <c r="I7">
+        <v>102</v>
+      </c>
+      <c r="J7">
+        <v>101</v>
+      </c>
+      <c r="K7">
+        <v>101</v>
+      </c>
+      <c r="L7">
+        <v>102</v>
+      </c>
+      <c r="M7">
+        <v>101</v>
+      </c>
+      <c r="N7">
+        <v>102</v>
+      </c>
+      <c r="O7">
+        <v>101</v>
+      </c>
+      <c r="P7">
+        <v>102</v>
+      </c>
+      <c r="Q7">
+        <v>102</v>
+      </c>
+      <c r="R7">
+        <v>101</v>
+      </c>
+      <c r="S7">
+        <v>102</v>
+      </c>
+      <c r="T7">
+        <v>101</v>
+      </c>
+      <c r="U7">
+        <v>102</v>
+      </c>
+      <c r="V7">
+        <v>101</v>
+      </c>
+      <c r="W7">
+        <v>102</v>
+      </c>
+      <c r="X7">
+        <v>102</v>
+      </c>
+      <c r="Y7">
+        <v>101</v>
+      </c>
+      <c r="Z7">
+        <v>102</v>
+      </c>
+      <c r="AA7">
+        <v>101</v>
+      </c>
+      <c r="AB7">
+        <v>102</v>
+      </c>
+      <c r="AC7">
+        <v>102</v>
+      </c>
+      <c r="AD7">
+        <v>101</v>
+      </c>
+      <c r="AE7">
+        <v>102</v>
+      </c>
+      <c r="AF7">
+        <v>101</v>
+      </c>
+      <c r="AG7">
+        <v>101</v>
+      </c>
+      <c r="AH7">
+        <v>101</v>
+      </c>
+      <c r="AI7">
+        <v>102</v>
+      </c>
+      <c r="AJ7">
+        <v>102</v>
+      </c>
+      <c r="AK7">
+        <v>101</v>
+      </c>
+      <c r="AL7">
+        <v>102</v>
+      </c>
+      <c r="AM7">
+        <v>101</v>
+      </c>
+      <c r="AN7">
+        <v>101</v>
+      </c>
+      <c r="AO7">
+        <v>102</v>
+      </c>
+      <c r="AP7">
+        <v>101</v>
+      </c>
+      <c r="AQ7">
+        <v>102</v>
+      </c>
+      <c r="AR7">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3882,15 +6509,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9EECDF-70EE-A14F-AB98-A69FEA9FA1C5}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:AU41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G2:G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3908,217 +6537,822 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <f>_xlfn.STDEV.S(H2:AU2)</f>
+        <v>0.36162028533978963</v>
+      </c>
+      <c r="H2">
+        <v>3000</v>
+      </c>
+      <c r="I2">
+        <v>3000</v>
+      </c>
+      <c r="J2">
+        <v>3000</v>
+      </c>
+      <c r="K2">
+        <v>3000</v>
+      </c>
+      <c r="L2">
+        <v>3000</v>
+      </c>
+      <c r="M2">
+        <v>3000</v>
+      </c>
+      <c r="N2">
+        <v>3000</v>
+      </c>
+      <c r="O2">
+        <v>3000</v>
+      </c>
+      <c r="P2">
+        <v>3000</v>
+      </c>
+      <c r="Q2">
+        <v>3000</v>
+      </c>
+      <c r="R2">
+        <v>3000</v>
+      </c>
+      <c r="S2">
+        <v>3000</v>
+      </c>
+      <c r="T2">
+        <v>3000</v>
+      </c>
+      <c r="U2">
+        <v>3000</v>
+      </c>
+      <c r="V2">
+        <v>3000</v>
+      </c>
+      <c r="W2">
+        <v>3000</v>
+      </c>
+      <c r="X2">
+        <v>3000</v>
+      </c>
+      <c r="Y2">
+        <v>3000</v>
+      </c>
+      <c r="Z2">
+        <v>2999</v>
+      </c>
+      <c r="AA2">
+        <v>3000</v>
+      </c>
+      <c r="AB2">
+        <v>2999</v>
+      </c>
+      <c r="AC2">
+        <v>3000</v>
+      </c>
+      <c r="AD2">
+        <v>2999</v>
+      </c>
+      <c r="AE2">
+        <v>3000</v>
+      </c>
+      <c r="AF2">
+        <v>2999</v>
+      </c>
+      <c r="AG2">
+        <v>3000</v>
+      </c>
+      <c r="AH2">
+        <v>2999</v>
+      </c>
+      <c r="AI2">
+        <v>3000</v>
+      </c>
+      <c r="AJ2">
+        <v>3000</v>
+      </c>
+      <c r="AK2">
+        <v>3000</v>
+      </c>
+      <c r="AL2">
+        <v>2999</v>
+      </c>
+      <c r="AM2">
+        <v>3000</v>
+      </c>
+      <c r="AN2">
+        <v>3000</v>
+      </c>
+      <c r="AO2">
+        <v>3000</v>
+      </c>
+      <c r="AP2">
+        <v>3000</v>
+      </c>
+      <c r="AQ2">
+        <v>3000</v>
+      </c>
+      <c r="AR2">
+        <v>3000</v>
+      </c>
+      <c r="AS2">
+        <v>3000</v>
+      </c>
+      <c r="AT2">
+        <v>3000</v>
+      </c>
+      <c r="AU2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f>_xlfn.STDEV.S(H3:AU3)</f>
+        <v>1.7742820866696827</v>
+      </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
+      <c r="I3">
+        <v>1000</v>
+      </c>
+      <c r="J3">
+        <v>1000</v>
+      </c>
+      <c r="K3">
+        <v>1001</v>
+      </c>
+      <c r="L3">
+        <v>1000</v>
+      </c>
+      <c r="M3">
+        <v>1000</v>
+      </c>
+      <c r="N3">
+        <v>1000</v>
+      </c>
+      <c r="O3">
+        <v>1001</v>
+      </c>
+      <c r="P3">
+        <v>1000</v>
+      </c>
+      <c r="Q3">
+        <v>1000</v>
+      </c>
+      <c r="R3">
+        <v>1001</v>
+      </c>
+      <c r="S3">
+        <v>1000</v>
+      </c>
+      <c r="T3">
+        <v>1000</v>
+      </c>
+      <c r="U3">
+        <v>1001</v>
+      </c>
+      <c r="V3">
+        <v>1000</v>
+      </c>
+      <c r="W3">
+        <v>1000</v>
+      </c>
+      <c r="X3">
+        <v>1000</v>
+      </c>
+      <c r="Y3">
+        <v>1000</v>
+      </c>
+      <c r="Z3">
+        <v>1000</v>
+      </c>
+      <c r="AA3">
+        <v>1000</v>
+      </c>
+      <c r="AB3">
+        <v>1001</v>
+      </c>
+      <c r="AC3">
+        <v>1000</v>
+      </c>
+      <c r="AD3">
+        <v>1001</v>
+      </c>
+      <c r="AE3">
+        <v>1001</v>
+      </c>
+      <c r="AF3">
+        <v>1000</v>
+      </c>
+      <c r="AG3">
+        <v>1001</v>
+      </c>
+      <c r="AH3">
+        <v>1001</v>
+      </c>
+      <c r="AI3">
+        <v>1000</v>
+      </c>
+      <c r="AJ3">
+        <v>1000</v>
+      </c>
+      <c r="AK3">
+        <v>1006</v>
+      </c>
+      <c r="AL3">
+        <v>1005</v>
+      </c>
+      <c r="AM3">
+        <v>1005</v>
+      </c>
+      <c r="AN3">
+        <v>1000</v>
+      </c>
+      <c r="AO3">
+        <v>1000</v>
+      </c>
+      <c r="AP3">
+        <v>1000</v>
+      </c>
+      <c r="AQ3">
+        <v>1006</v>
+      </c>
+      <c r="AR3">
+        <v>1000</v>
+      </c>
+      <c r="AS3">
+        <v>1005</v>
+      </c>
+      <c r="AT3">
+        <v>1001</v>
+      </c>
+      <c r="AU3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f>_xlfn.STDEV.S(H4:AU4)</f>
+        <v>0.61965664603420434</v>
+      </c>
+      <c r="H4">
+        <v>503</v>
+      </c>
+      <c r="I4">
+        <v>505</v>
+      </c>
+      <c r="J4">
+        <v>503</v>
+      </c>
+      <c r="K4">
+        <v>503</v>
+      </c>
+      <c r="L4">
+        <v>505</v>
+      </c>
+      <c r="M4">
+        <v>503</v>
+      </c>
+      <c r="N4">
+        <v>503</v>
+      </c>
+      <c r="O4">
+        <v>503</v>
+      </c>
+      <c r="P4">
+        <v>503</v>
+      </c>
+      <c r="Q4">
+        <v>503</v>
+      </c>
+      <c r="R4">
+        <v>503</v>
+      </c>
+      <c r="S4">
+        <v>503</v>
+      </c>
+      <c r="T4">
+        <v>503</v>
+      </c>
+      <c r="U4">
+        <v>503</v>
+      </c>
+      <c r="V4">
+        <v>505</v>
+      </c>
+      <c r="W4">
+        <v>503</v>
+      </c>
+      <c r="X4">
+        <v>503</v>
+      </c>
+      <c r="Y4">
+        <v>503</v>
+      </c>
+      <c r="Z4">
+        <v>503</v>
+      </c>
+      <c r="AA4">
+        <v>503</v>
+      </c>
+      <c r="AB4">
+        <v>503</v>
+      </c>
+      <c r="AC4">
+        <v>503</v>
+      </c>
+      <c r="AD4">
+        <v>503</v>
+      </c>
+      <c r="AE4">
+        <v>503</v>
+      </c>
+      <c r="AF4">
+        <v>503</v>
+      </c>
+      <c r="AG4">
+        <v>503</v>
+      </c>
+      <c r="AH4">
+        <v>505</v>
+      </c>
+      <c r="AI4">
+        <v>503</v>
+      </c>
+      <c r="AJ4">
+        <v>503</v>
+      </c>
+      <c r="AK4">
+        <v>503</v>
+      </c>
+      <c r="AL4">
+        <v>503</v>
+      </c>
+      <c r="AM4">
+        <v>504</v>
+      </c>
+      <c r="AN4">
+        <v>503</v>
+      </c>
+      <c r="AO4">
+        <v>503</v>
+      </c>
+      <c r="AP4">
+        <v>503</v>
+      </c>
+      <c r="AQ4">
+        <v>503</v>
+      </c>
+      <c r="AR4">
+        <v>503</v>
+      </c>
+      <c r="AS4">
+        <v>503</v>
+      </c>
+      <c r="AT4">
+        <v>503</v>
+      </c>
+      <c r="AU4">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f>_xlfn.STDEV.S(H5:AU5)</f>
+        <v>1.6623662467884555</v>
+      </c>
+      <c r="H5">
+        <v>307</v>
+      </c>
+      <c r="I5">
+        <v>307</v>
+      </c>
+      <c r="J5">
+        <v>307</v>
+      </c>
+      <c r="K5">
+        <v>307</v>
+      </c>
+      <c r="L5">
+        <v>307</v>
+      </c>
+      <c r="M5">
+        <v>307</v>
+      </c>
+      <c r="N5">
+        <v>307</v>
+      </c>
+      <c r="O5">
+        <v>304</v>
+      </c>
+      <c r="P5">
+        <v>303</v>
+      </c>
+      <c r="Q5">
+        <v>303</v>
+      </c>
+      <c r="R5">
+        <v>307</v>
+      </c>
+      <c r="S5">
+        <v>307</v>
+      </c>
+      <c r="T5">
+        <v>308</v>
+      </c>
+      <c r="U5">
+        <v>307</v>
+      </c>
+      <c r="V5">
+        <v>303</v>
+      </c>
+      <c r="W5">
+        <v>307</v>
+      </c>
+      <c r="X5">
+        <v>307</v>
+      </c>
+      <c r="Y5">
+        <v>307</v>
+      </c>
+      <c r="Z5">
+        <v>303</v>
+      </c>
+      <c r="AA5">
+        <v>308</v>
+      </c>
+      <c r="AB5">
+        <v>307</v>
+      </c>
+      <c r="AC5">
+        <v>303</v>
+      </c>
+      <c r="AD5">
+        <v>304</v>
+      </c>
+      <c r="AE5">
+        <v>307</v>
+      </c>
+      <c r="AF5">
+        <v>308</v>
+      </c>
+      <c r="AG5">
+        <v>307</v>
+      </c>
+      <c r="AH5">
+        <v>303</v>
+      </c>
+      <c r="AI5">
+        <v>308</v>
+      </c>
+      <c r="AJ5">
+        <v>307</v>
+      </c>
+      <c r="AK5">
+        <v>308</v>
+      </c>
+      <c r="AL5">
+        <v>307</v>
+      </c>
+      <c r="AM5">
+        <v>307</v>
+      </c>
+      <c r="AN5">
+        <v>307</v>
+      </c>
+      <c r="AO5">
+        <v>307</v>
+      </c>
+      <c r="AP5">
+        <v>308</v>
+      </c>
+      <c r="AQ5">
+        <v>307</v>
+      </c>
+      <c r="AR5">
+        <v>307</v>
+      </c>
+      <c r="AS5">
+        <v>307</v>
+      </c>
+      <c r="AT5">
+        <v>307</v>
+      </c>
+      <c r="AU5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f>_xlfn.STDEV.S(H6:AU6)</f>
+        <v>0.49613893835683365</v>
+      </c>
+      <c r="H6">
+        <v>109</v>
+      </c>
+      <c r="I6">
+        <v>109</v>
+      </c>
+      <c r="J6">
+        <v>110</v>
+      </c>
+      <c r="K6">
+        <v>109</v>
+      </c>
+      <c r="L6">
+        <v>109</v>
+      </c>
+      <c r="M6">
+        <v>110</v>
+      </c>
+      <c r="N6">
+        <v>109</v>
+      </c>
+      <c r="O6">
+        <v>109</v>
+      </c>
+      <c r="P6">
+        <v>109</v>
+      </c>
+      <c r="Q6">
+        <v>110</v>
+      </c>
+      <c r="R6">
+        <v>109</v>
+      </c>
+      <c r="S6">
+        <v>109</v>
+      </c>
+      <c r="T6">
+        <v>110</v>
+      </c>
+      <c r="U6">
+        <v>109</v>
+      </c>
+      <c r="V6">
+        <v>110</v>
+      </c>
+      <c r="W6">
+        <v>109</v>
+      </c>
+      <c r="X6">
+        <v>110</v>
+      </c>
+      <c r="Y6">
+        <v>110</v>
+      </c>
+      <c r="Z6">
+        <v>109</v>
+      </c>
+      <c r="AA6">
+        <v>110</v>
+      </c>
+      <c r="AB6">
+        <v>109</v>
+      </c>
+      <c r="AC6">
+        <v>110</v>
+      </c>
+      <c r="AD6">
+        <v>109</v>
+      </c>
+      <c r="AE6">
+        <v>110</v>
+      </c>
+      <c r="AF6">
+        <v>110</v>
+      </c>
+      <c r="AG6">
+        <v>109</v>
+      </c>
+      <c r="AH6">
+        <v>110</v>
+      </c>
+      <c r="AI6">
+        <v>109</v>
+      </c>
+      <c r="AJ6">
+        <v>109</v>
+      </c>
+      <c r="AK6">
+        <v>109</v>
+      </c>
+      <c r="AL6">
+        <v>109</v>
+      </c>
+      <c r="AM6">
+        <v>110</v>
+      </c>
+      <c r="AN6">
+        <v>109</v>
+      </c>
+      <c r="AO6">
+        <v>110</v>
+      </c>
+      <c r="AP6">
+        <v>109</v>
+      </c>
+      <c r="AQ6">
+        <v>109</v>
+      </c>
+      <c r="AR6">
+        <v>110</v>
+      </c>
+      <c r="AS6">
+        <v>109</v>
+      </c>
+      <c r="AT6">
+        <v>110</v>
+      </c>
+      <c r="AU6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
